--- a/src/excel/FashionProductsData.xlsx
+++ b/src/excel/FashionProductsData.xlsx
@@ -58,7 +58,7 @@
     <t>657aba8fcb516d87717e8172</t>
   </si>
   <si>
-    <t>Gamis Bahan Tile</t>
+    <t>Gamis Tile High</t>
   </si>
   <si>
     <t>Berbahan Tile</t>
@@ -73,10 +73,10 @@
     <t>12/17/2023</t>
   </si>
   <si>
-    <t xml:space="preserve">Celana Jeans Slim Fit </t>
-  </si>
-  <si>
-    <t>Slim fit jeans for men</t>
+    <t>Celana Jeans Kulot</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Rp. 55,000</t>
@@ -88,10 +88,10 @@
     <t>657e5ee73c1a9b6cca06bd21</t>
   </si>
   <si>
-    <t xml:space="preserve">Hijab Style Casual </t>
-  </si>
-  <si>
-    <t>web</t>
+    <t xml:space="preserve">Hijab Pashmina </t>
+  </si>
+  <si>
+    <t>Hijab pashmina</t>
   </si>
   <si>
     <t>Rp. 35,000</t>

--- a/src/excel/FashionProductsData.xlsx
+++ b/src/excel/FashionProductsData.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="76">
   <si>
     <t>ID</t>
   </si>
@@ -40,160 +40,205 @@
     <t>12/14/2023</t>
   </si>
   <si>
-    <t xml:space="preserve">Kerudung Crincle </t>
-  </si>
-  <si>
-    <t>Berbahan Crincle</t>
+    <t>Kerudung Crincle  - Krem - XL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berbahan Crincle </t>
+  </si>
+  <si>
+    <t>Rp. 12,900</t>
+  </si>
+  <si>
+    <t>Web</t>
+  </si>
+  <si>
+    <t>12 pcs</t>
+  </si>
+  <si>
+    <t>657aba8fcb516d87717e8172</t>
+  </si>
+  <si>
+    <t>Gamis Tile High - Tile High - One SIze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berbahan Tile </t>
+  </si>
+  <si>
+    <t>Rp. 90,900</t>
+  </si>
+  <si>
+    <t>192 pcs</t>
+  </si>
+  <si>
+    <t>657e5ee73c1a9b6cca06bd22</t>
+  </si>
+  <si>
+    <t>12/17/2023</t>
+  </si>
+  <si>
+    <t>Celana Jeans Kulot - Kulot - One Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kulot</t>
   </si>
   <si>
     <t>Rp. 99,000</t>
   </si>
   <si>
-    <t>Web</t>
-  </si>
-  <si>
-    <t>50 pcs</t>
-  </si>
-  <si>
-    <t>657aba8fcb516d87717e8172</t>
-  </si>
-  <si>
-    <t>Gamis Tile High</t>
-  </si>
-  <si>
-    <t>Berbahan Tile</t>
-  </si>
-  <si>
-    <t>Rp. 150,000</t>
-  </si>
-  <si>
-    <t>657e5ee73c1a9b6cca06bd22</t>
-  </si>
-  <si>
-    <t>12/17/2023</t>
-  </si>
-  <si>
-    <t>Celana Jeans Kulot</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Rp. 55,000</t>
-  </si>
-  <si>
-    <t>45 pcs</t>
+    <t>7 pcs</t>
   </si>
   <si>
     <t>657e5ee73c1a9b6cca06bd21</t>
   </si>
   <si>
-    <t xml:space="preserve">Hijab Pashmina </t>
-  </si>
-  <si>
-    <t>Hijab pashmina</t>
-  </si>
-  <si>
-    <t>Rp. 35,000</t>
-  </si>
-  <si>
-    <t>30 pcs</t>
+    <t>Hijab Pashmina  - Abu abu - One Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hijab pashmina </t>
+  </si>
+  <si>
+    <t>9 pcs</t>
   </si>
   <si>
     <t>657e5ee73c1a9b6cca06bd23</t>
   </si>
   <si>
-    <t>Baju Batik Wanita</t>
-  </si>
-  <si>
-    <t>Batik blouse for women</t>
-  </si>
-  <si>
-    <t>Rp. 48,000</t>
-  </si>
-  <si>
-    <t>55 pcs</t>
+    <t>Baju Batik Wanita - Blouse China - XL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batik blouse for women </t>
+  </si>
+  <si>
+    <t>Rp. 29,900</t>
   </si>
   <si>
     <t>657e5ee73c1a9b6cca06bd24</t>
   </si>
   <si>
-    <t>Gaun Pesta Elegan</t>
-  </si>
-  <si>
-    <t>Elegant evening gown for special occasions</t>
+    <t>Gaun Pesta Elegan - Satin Coklat - One SIze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elegant evening gown for special occasions </t>
+  </si>
+  <si>
+    <t>96 pcs</t>
+  </si>
+  <si>
+    <t>657e60693c1a9b6cca06bd2e</t>
+  </si>
+  <si>
+    <t>Peci Brokat Muslim - Base - L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peci brokat untuk pria muslim </t>
+  </si>
+  <si>
+    <t>Rp. 29,000</t>
+  </si>
+  <si>
+    <t>Peci Brokat Muslim - Base - XL</t>
+  </si>
+  <si>
+    <t>114 pcs</t>
+  </si>
+  <si>
+    <t>657e60693c1a9b6cca06bd2b</t>
+  </si>
+  <si>
+    <t>Jilbab Syar'i Casual - Cokkat Tua - Base</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jilbab syar'i </t>
+  </si>
+  <si>
+    <t>Rp. 39,000</t>
+  </si>
+  <si>
+    <t>46 pcs</t>
+  </si>
+  <si>
+    <t>Jilbab Syar'i Casual - Coklat Muda - Base</t>
+  </si>
+  <si>
+    <t>Rp. 38,500</t>
+  </si>
+  <si>
+    <t>445 pcs</t>
+  </si>
+  <si>
+    <t>657e60693c1a9b6cca06bd2d</t>
+  </si>
+  <si>
+    <t>Sarung Katun Premium Super - Coklat - Base</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sarung katun berkualitas premium </t>
+  </si>
+  <si>
+    <t>Rp. 49,000</t>
+  </si>
+  <si>
+    <t>119 pcs</t>
+  </si>
+  <si>
+    <t>657e60693c1a9b6cca06bd2c</t>
+  </si>
+  <si>
+    <t>Baju Gamis Wanita - Biru - XL</t>
+  </si>
+  <si>
+    <t>Baju gamis untuk wanita muslimah undefined</t>
+  </si>
+  <si>
+    <t>200 pcs</t>
+  </si>
+  <si>
+    <t>Baju Gamis Wanita - Hijau - XL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baju gamis untuk wanita muslimah </t>
   </si>
   <si>
     <t>Rp. 120,000</t>
   </si>
   <si>
-    <t>20 pcs</t>
-  </si>
-  <si>
-    <t>657e60693c1a9b6cca06bd2e</t>
-  </si>
-  <si>
-    <t>Peci Brokat Muslim</t>
-  </si>
-  <si>
-    <t>Peci brokat untuk pria muslim</t>
-  </si>
-  <si>
-    <t>Rp. 80,000</t>
-  </si>
-  <si>
-    <t>100 pcs</t>
-  </si>
-  <si>
-    <t>657e60693c1a9b6cca06bd2b</t>
-  </si>
-  <si>
-    <t>Jilbab Syar'i Casual</t>
-  </si>
-  <si>
-    <t>Jilbab syar'i</t>
+    <t>1 pcs</t>
+  </si>
+  <si>
+    <t>65a8ac12b8ed380d73302937</t>
+  </si>
+  <si>
+    <t>1/18/2024</t>
+  </si>
+  <si>
+    <t>Baju Koko - BIRU - XL</t>
+  </si>
+  <si>
+    <t>Baju koko undefined</t>
+  </si>
+  <si>
+    <t>Rp. 129,900</t>
+  </si>
+  <si>
+    <t>70 pcs</t>
+  </si>
+  <si>
+    <t>Baju Koko - BIRU - L</t>
+  </si>
+  <si>
+    <t>85 pcs</t>
+  </si>
+  <si>
+    <t>Baju Koko - WHITE - XL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baju koko </t>
   </si>
   <si>
     <t>Rp. 100,000</t>
   </si>
   <si>
-    <t>657e60693c1a9b6cca06bd2d</t>
-  </si>
-  <si>
-    <t>Sarung Katun Premium Super</t>
-  </si>
-  <si>
-    <t>Sarung katun berkualitas premium</t>
-  </si>
-  <si>
-    <t>Rp. 500,000</t>
-  </si>
-  <si>
-    <t>200 pcs</t>
-  </si>
-  <si>
-    <t>657e60693c1a9b6cca06bd2c</t>
-  </si>
-  <si>
-    <t>Baju Gamis Wanita</t>
-  </si>
-  <si>
-    <t>Baju gamis untuk wanita muslimah</t>
-  </si>
-  <si>
-    <t>65a8ac12b8ed380d73302937</t>
-  </si>
-  <si>
-    <t>1/18/2024</t>
-  </si>
-  <si>
-    <t>Baju Koko</t>
-  </si>
-  <si>
-    <t>Baju koko</t>
-  </si>
-  <si>
-    <t>Rp. 89,000</t>
+    <t>485 pcs</t>
   </si>
 </sst>
 </file>
@@ -579,7 +624,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G17"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="7" width="30" customWidth="1"/>
@@ -651,47 +696,47 @@
         <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>12</v>
@@ -705,7 +750,7 @@
         <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>30</v>
@@ -720,145 +765,260 @@
         <v>12</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="2" t="s">
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>43</v>
+      <c r="D14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
